--- a/2020.hs/extra/day8.xlsx
+++ b/2020.hs/extra/day8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23607"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kocuni-my.sharepoint.com/personal/usengil_ku_edu_tr/Documents/My Files/Personal Projects/advent-of-code/2020.hs/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kocuni-my.sharepoint.com/personal/usengil_ku_edu_tr/Documents/My Files/Personal Projects/advent-of-code/2020.hs/extra/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{229385F8-70F4-4305-99E7-F92DAF6CA910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F4D205D9-6519-4EB3-B687-6BF99288DEC5}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{229385F8-70F4-4305-99E7-F92DAF6CA910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0B084F93-0404-4AD3-86C2-5F5FEBF6BC1F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{11DB06FD-3AE6-4A5B-B6F0-BE66421C0592}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11DB06FD-3AE6-4A5B-B6F0-BE66421C0592}"/>
   </bookViews>
   <sheets>
     <sheet name="solution" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="instructions">_8[]</definedName>
     <definedName name="modT1">Modded[]</definedName>
   </definedNames>
-  <calcPr calcId="191028" refMode="R1C1" iterate="1" iterateCount="1000" calcCompleted="0"/>
+  <calcPr calcId="191028" refMode="R1C1" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -136,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,13 +389,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="9" tint="0.39997558519241921"/>
         </left>
@@ -430,6 +423,13 @@
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -486,6 +486,3920 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Looping</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Run</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>solution!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>row</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>solution!$J$2:$J$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="192"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>543</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>622</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>254</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A766-4230-89A9-96F692C5E534}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>solution!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>solution!$M$2:$M$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="192"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>747</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>747</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>838</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>838</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>838</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>834</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>843</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>843</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>881</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>882</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>909</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>909</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>909</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>909</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>899</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>932</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>932</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>929</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>947</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>947</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1013</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1049</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1049</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1049</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1081</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1081</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1073</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1095</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1095</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1095</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1095</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1099</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1099</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1099</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1122</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1122</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1122</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1122</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1122</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1122</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1157</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1157</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1157</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1157</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1157</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1157</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1161</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1153</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1167</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1167</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1149</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1182</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1182</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1166</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1171</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1171</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1171</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1171</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1159</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1159</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1167</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1167</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1142</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1142</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1138</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1179</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1179</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A766-4230-89A9-96F692C5E534}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1981695711"/>
+        <c:axId val="1981692799"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1981695711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1981692799"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1981692799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1981695711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>After fixing loop</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41227077865266848"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>solution!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>row</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>solution!$V$2:$V$143</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="142"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>543</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>539</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>627</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>631</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D05-4F7D-9EBC-EFD22B300B55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>solution!$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>solution!$Y$2:$Y$143</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="142"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>747</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>747</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>747</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>787</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>787</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>834</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>892</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>892</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>915</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>915</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>898</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>881</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>909</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>909</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>946</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>927</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1039</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1039</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1089</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1089</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9D05-4F7D-9EBC-EFD22B300B55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="316554815"/>
+        <c:axId val="316552735"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="316554815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316552735"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="316552735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316554815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142881</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{693E881E-1B9F-4886-BEAC-52EBAA8DAB3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A5AC50-2F8D-489E-B7BB-931B3F52D7EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{74BE9820-FBB0-4400-A4F3-2CB07E553181}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="12" unboundColumnsRight="6">
@@ -532,7 +4446,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{07718524-FC43-47F5-A00D-A58EDE253EA7}" name="Modded" displayName="Modded" ref="Q1:T632" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{07718524-FC43-47F5-A00D-A58EDE253EA7}" name="Modded" displayName="Modded" ref="Q1:T632" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="Q1:T632" xr:uid="{E860BE2E-3612-45E3-9D5E-FE8C5195B809}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6A74FEDB-F7B9-406B-9899-2DFCAAD85E9C}" name="ins" dataDxfId="3"/>
@@ -845,12 +4759,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB54831-9293-48FA-B495-D032C4EEA9D3}">
   <dimension ref="A1:AA632"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H306" sqref="H306"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AM18" sqref="AM18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -862,7 +4776,7 @@
     <col min="16" max="16" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -936,7 +4850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1024,7 +4938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1108,15 +5022,15 @@
         <v>26</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z66" si="1">IF(W3="jmp", V3+X3, V3+1)</f>
+        <f t="shared" ref="Z3" si="1">IF(W3="jmp", V3+X3, V3+1)</f>
         <v>3</v>
       </c>
       <c r="AA3" t="b">
-        <f t="shared" ref="AA3:AA66" si="2">MATCH(V3, V:V, 0)&lt;&gt;ROW()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+        <f t="shared" ref="AA3" si="2">MATCH(V3, V:V, 0)&lt;&gt;ROW()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1208,7 +5122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1300,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1392,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1484,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1576,7 +5490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1668,7 +5582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1760,7 +5674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1852,7 +5766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1944,7 +5858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -2036,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -2128,7 +6042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -2220,7 +6134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2312,7 +6226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -2404,7 +6318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -2496,7 +6410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -2588,7 +6502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -2680,7 +6594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -2772,7 +6686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -2864,7 +6778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -2956,7 +6870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -3048,7 +6962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
@@ -3140,7 +7054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -3232,7 +7146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -3324,7 +7238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -3416,7 +7330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -3508,7 +7422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -3600,7 +7514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -3692,7 +7606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -3784,7 +7698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -3876,7 +7790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -3968,7 +7882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
@@ -4060,7 +7974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -4152,7 +8066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>12</v>
       </c>
@@ -4244,7 +8158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -4336,7 +8250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -4428,7 +8342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -4520,7 +8434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -4612,7 +8526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>12</v>
       </c>
@@ -4704,7 +8618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -4796,7 +8710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>12</v>
       </c>
@@ -4888,7 +8802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>12</v>
       </c>
@@ -4980,7 +8894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>12</v>
       </c>
@@ -5072,7 +8986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
@@ -5164,7 +9078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -5256,7 +9170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -5348,7 +9262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>12</v>
       </c>
@@ -5440,7 +9354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -5532,7 +9446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -5624,7 +9538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -5716,7 +9630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
@@ -5808,7 +9722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
@@ -5900,7 +9814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:27">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -5992,7 +9906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:27">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -6084,7 +9998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:27">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -6176,7 +10090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:27">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -6268,7 +10182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:27">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>12</v>
       </c>
@@ -6360,7 +10274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:27">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>12</v>
       </c>
@@ -6452,7 +10366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -6544,7 +10458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:27">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -6636,7 +10550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:27">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
@@ -6728,7 +10642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -6820,7 +10734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -6912,7 +10826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -7004,7 +10918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>12</v>
       </c>
@@ -7096,7 +11010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>12</v>
       </c>
@@ -7188,7 +11102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:27">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -7280,7 +11194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:27">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
@@ -7372,7 +11286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:27">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -7464,7 +11378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -7556,7 +11470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:27">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>12</v>
       </c>
@@ -7648,7 +11562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:27">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
@@ -7740,7 +11654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:27">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>12</v>
       </c>
@@ -7832,7 +11746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
@@ -7924,7 +11838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:27">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
@@ -8016,7 +11930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:27">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>12</v>
       </c>
@@ -8108,7 +12022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:27">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
@@ -8200,7 +12114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:27">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -8292,7 +12206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:27">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>12</v>
       </c>
@@ -8384,7 +12298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:27">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>8</v>
       </c>
@@ -8476,7 +12390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:27">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>12</v>
       </c>
@@ -8568,7 +12482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:27">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
@@ -8660,7 +12574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:27">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>11</v>
       </c>
@@ -8752,7 +12666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:27">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
@@ -8844,7 +12758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:27">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>12</v>
       </c>
@@ -8936,7 +12850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:27">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>12</v>
       </c>
@@ -9028,7 +12942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:27">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -9120,7 +13034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:27">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>11</v>
       </c>
@@ -9212,7 +13126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:27">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>8</v>
       </c>
@@ -9304,7 +13218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:27">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>12</v>
       </c>
@@ -9396,7 +13310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:27">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>12</v>
       </c>
@@ -9488,7 +13402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:27">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>11</v>
       </c>
@@ -9580,7 +13494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:27">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>11</v>
       </c>
@@ -9672,7 +13586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:27">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>12</v>
       </c>
@@ -9764,7 +13678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:27">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>11</v>
       </c>
@@ -9856,7 +13770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:27">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>8</v>
       </c>
@@ -9948,7 +13862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:27">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>8</v>
       </c>
@@ -10040,7 +13954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:27">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>12</v>
       </c>
@@ -10132,7 +14046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:27">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>11</v>
       </c>
@@ -10224,7 +14138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:27">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>11</v>
       </c>
@@ -10316,7 +14230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:27">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>11</v>
       </c>
@@ -10408,7 +14322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:27">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>12</v>
       </c>
@@ -10500,7 +14414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:27">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>8</v>
       </c>
@@ -10592,7 +14506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:27">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>8</v>
       </c>
@@ -10684,7 +14598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:27">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>11</v>
       </c>
@@ -10776,7 +14690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:27">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>12</v>
       </c>
@@ -10868,7 +14782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:27">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>8</v>
       </c>
@@ -10960,7 +14874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:27">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>8</v>
       </c>
@@ -11052,7 +14966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:27">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>11</v>
       </c>
@@ -11144,7 +15058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:27">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>8</v>
       </c>
@@ -11236,7 +15150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:27">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>12</v>
       </c>
@@ -11328,7 +15242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:27">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>12</v>
       </c>
@@ -11420,7 +15334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:27">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>12</v>
       </c>
@@ -11512,7 +15426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:27">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>12</v>
       </c>
@@ -11604,7 +15518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:27">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>8</v>
       </c>
@@ -11696,7 +15610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:27">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>12</v>
       </c>
@@ -11788,7 +15702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:27">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>11</v>
       </c>
@@ -11880,7 +15794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:27">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>8</v>
       </c>
@@ -11972,7 +15886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:27">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>8</v>
       </c>
@@ -12064,7 +15978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:27">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>8</v>
       </c>
@@ -12156,7 +16070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:27">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>12</v>
       </c>
@@ -12248,7 +16162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:27">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>8</v>
       </c>
@@ -12340,7 +16254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:27">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>11</v>
       </c>
@@ -12432,7 +16346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:27">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>8</v>
       </c>
@@ -12524,7 +16438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:27">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>8</v>
       </c>
@@ -12616,7 +16530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:27">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>12</v>
       </c>
@@ -12708,7 +16622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:27">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>8</v>
       </c>
@@ -12800,7 +16714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:27">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>11</v>
       </c>
@@ -12892,7 +16806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:27">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>12</v>
       </c>
@@ -12960,7 +16874,7 @@
         <v>131</v>
       </c>
       <c r="V132">
-        <f t="shared" ref="V132:V195" si="26">Z131</f>
+        <f t="shared" ref="V132:V144" si="26">Z131</f>
         <v>531</v>
       </c>
       <c r="W132" t="str" cm="1">
@@ -12972,19 +16886,19 @@
         <v>-19</v>
       </c>
       <c r="Y132">
-        <f t="shared" ref="Y132:Y195" si="27">IF(W132="acc", Y131+X132, Y131)</f>
+        <f t="shared" ref="Y132:Y144" si="27">IF(W132="acc", Y131+X132, Y131)</f>
         <v>927</v>
       </c>
       <c r="Z132">
-        <f t="shared" ref="Z132:Z195" si="28">IF(W132="jmp", V132+X132, V132+1)</f>
+        <f t="shared" ref="Z132:Z144" si="28">IF(W132="jmp", V132+X132, V132+1)</f>
         <v>532</v>
       </c>
       <c r="AA132" t="b">
-        <f t="shared" ref="AA132:AA195" si="29">MATCH(V132, V:V, 0)&lt;&gt;ROW()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:27">
+        <f t="shared" ref="AA132:AA144" si="29">MATCH(V132, V:V, 0)&lt;&gt;ROW()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>8</v>
       </c>
@@ -13076,7 +16990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:27">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>8</v>
       </c>
@@ -13168,7 +17082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:27">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>8</v>
       </c>
@@ -13260,7 +17174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:27">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>12</v>
       </c>
@@ -13352,7 +17266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:27">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>12</v>
       </c>
@@ -13444,7 +17358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:27">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>8</v>
       </c>
@@ -13536,7 +17450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:27">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>12</v>
       </c>
@@ -13628,7 +17542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:27">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>8</v>
       </c>
@@ -13720,7 +17634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:27">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>8</v>
       </c>
@@ -13812,7 +17726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:27">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>12</v>
       </c>
@@ -13904,7 +17818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:27">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>8</v>
       </c>
@@ -13996,7 +17910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:27">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>8</v>
       </c>
@@ -14088,7 +18002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:20">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>8</v>
       </c>
@@ -14156,7 +18070,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:20">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>12</v>
       </c>
@@ -14224,7 +18138,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:20">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>8</v>
       </c>
@@ -14292,7 +18206,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:20">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>12</v>
       </c>
@@ -14360,7 +18274,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:20">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>8</v>
       </c>
@@ -14428,7 +18342,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:20">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>8</v>
       </c>
@@ -14496,7 +18410,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:20">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>8</v>
       </c>
@@ -14564,7 +18478,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:20">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>12</v>
       </c>
@@ -14632,7 +18546,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:20">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>12</v>
       </c>
@@ -14700,7 +18614,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:20">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>8</v>
       </c>
@@ -14768,7 +18682,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:20">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>8</v>
       </c>
@@ -14836,7 +18750,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:20">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>8</v>
       </c>
@@ -14904,7 +18818,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:20">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>12</v>
       </c>
@@ -14972,7 +18886,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:20">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>8</v>
       </c>
@@ -15040,7 +18954,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:20">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>8</v>
       </c>
@@ -15108,7 +19022,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:20">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>8</v>
       </c>
@@ -15176,7 +19090,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:20">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>12</v>
       </c>
@@ -15244,7 +19158,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:20">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>11</v>
       </c>
@@ -15312,7 +19226,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:20">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>8</v>
       </c>
@@ -15380,7 +19294,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:20">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>12</v>
       </c>
@@ -15448,7 +19362,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:20">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>8</v>
       </c>
@@ -15516,7 +19430,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:20">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>12</v>
       </c>
@@ -15584,7 +19498,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:20">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>12</v>
       </c>
@@ -15652,7 +19566,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:20">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>8</v>
       </c>
@@ -15720,7 +19634,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:20">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>8</v>
       </c>
@@ -15788,7 +19702,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:20">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>12</v>
       </c>
@@ -15856,7 +19770,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:20">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>12</v>
       </c>
@@ -15924,7 +19838,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:20">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>8</v>
       </c>
@@ -15992,7 +19906,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:20">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>12</v>
       </c>
@@ -16060,7 +19974,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:20">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>8</v>
       </c>
@@ -16128,7 +20042,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:20">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>11</v>
       </c>
@@ -16196,7 +20110,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:20">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>8</v>
       </c>
@@ -16264,7 +20178,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:20">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>12</v>
       </c>
@@ -16332,7 +20246,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:20">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>8</v>
       </c>
@@ -16400,7 +20314,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:20">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>12</v>
       </c>
@@ -16468,7 +20382,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:20">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>8</v>
       </c>
@@ -16536,7 +20450,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:20">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>12</v>
       </c>
@@ -16604,7 +20518,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:20">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>12</v>
       </c>
@@ -16672,7 +20586,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:20">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>8</v>
       </c>
@@ -16740,7 +20654,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:20">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>8</v>
       </c>
@@ -16808,7 +20722,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:20">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>12</v>
       </c>
@@ -16876,7 +20790,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:20">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>8</v>
       </c>
@@ -16944,7 +20858,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:20">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>8</v>
       </c>
@@ -16995,7 +20909,7 @@
         <v>520</v>
       </c>
       <c r="O187" t="b">
-        <f>MATCH(J187, J:J, 0)&lt;&gt;ROW()</f>
+        <f t="shared" ref="O187:O193" si="33">MATCH(J187, J:J, 0)&lt;&gt;ROW()</f>
         <v>0</v>
       </c>
       <c r="Q187" s="5" t="s">
@@ -17012,7 +20926,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:20">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>8</v>
       </c>
@@ -17063,7 +20977,7 @@
         <v>521</v>
       </c>
       <c r="O188" t="b">
-        <f>MATCH(J188, J:J, 0)&lt;&gt;ROW()</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q188" s="4" t="s">
@@ -17080,7 +20994,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:20">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>8</v>
       </c>
@@ -17131,7 +21045,7 @@
         <v>522</v>
       </c>
       <c r="O189" t="b">
-        <f>MATCH(J189, J:J, 0)&lt;&gt;ROW()</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q189" s="5" t="s">
@@ -17148,7 +21062,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:20">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>12</v>
       </c>
@@ -17199,7 +21113,7 @@
         <v>252</v>
       </c>
       <c r="O190" t="b">
-        <f>MATCH(J190, J:J, 0)&lt;&gt;ROW()</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q190" s="4" t="s">
@@ -17216,7 +21130,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:20">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>8</v>
       </c>
@@ -17267,7 +21181,7 @@
         <v>253</v>
       </c>
       <c r="O191" t="b">
-        <f>MATCH(J191, J:J, 0)&lt;&gt;ROW()</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q191" s="5" t="s">
@@ -17284,7 +21198,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:20">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>8</v>
       </c>
@@ -17335,7 +21249,7 @@
         <v>254</v>
       </c>
       <c r="O192" t="b">
-        <f>MATCH(J192, J:J, 0)&lt;&gt;ROW()</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q192" s="4" t="s">
@@ -17352,7 +21266,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:20">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>11</v>
       </c>
@@ -17403,7 +21317,7 @@
         <v>365</v>
       </c>
       <c r="O193" t="b">
-        <f>MATCH(J193, J:J, 0)&lt;&gt;ROW()</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q193" s="5" t="s">
@@ -17420,7 +21334,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:20">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>8</v>
       </c>
@@ -17464,7 +21378,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:20">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>12</v>
       </c>
@@ -17508,7 +21422,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:20">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>11</v>
       </c>
@@ -17552,7 +21466,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:20">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>12</v>
       </c>
@@ -17596,7 +21510,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:20">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>8</v>
       </c>
@@ -17640,7 +21554,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:20">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>12</v>
       </c>
@@ -17684,7 +21598,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:20">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>8</v>
       </c>
@@ -17728,7 +21642,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:20">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>12</v>
       </c>
@@ -17772,7 +21686,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:20">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>11</v>
       </c>
@@ -17816,7 +21730,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:20">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>8</v>
       </c>
@@ -17860,7 +21774,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:20">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>11</v>
       </c>
@@ -17904,7 +21818,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:20">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>8</v>
       </c>
@@ -17948,7 +21862,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:20">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>12</v>
       </c>
@@ -17992,7 +21906,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:20">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>11</v>
       </c>
@@ -18036,7 +21950,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:20">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>11</v>
       </c>
@@ -18080,7 +21994,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:20">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>8</v>
       </c>
@@ -18124,7 +22038,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:20">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>12</v>
       </c>
@@ -18168,7 +22082,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:20">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>8</v>
       </c>
@@ -18212,7 +22126,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:20">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>8</v>
       </c>
@@ -18256,7 +22170,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:20">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>11</v>
       </c>
@@ -18300,7 +22214,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:20">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>12</v>
       </c>
@@ -18344,7 +22258,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:20">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>12</v>
       </c>
@@ -18388,7 +22302,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:20">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>8</v>
       </c>
@@ -18432,7 +22346,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:20">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>8</v>
       </c>
@@ -18476,7 +22390,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:20">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>8</v>
       </c>
@@ -18520,7 +22434,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:20">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>8</v>
       </c>
@@ -18564,7 +22478,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:20">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>12</v>
       </c>
@@ -18608,7 +22522,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:20">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>8</v>
       </c>
@@ -18652,7 +22566,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:20">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>8</v>
       </c>
@@ -18696,7 +22610,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:20">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>12</v>
       </c>
@@ -18740,7 +22654,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:20">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>8</v>
       </c>
@@ -18784,7 +22698,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:20">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>11</v>
       </c>
@@ -18828,7 +22742,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:20">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>8</v>
       </c>
@@ -18872,7 +22786,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:20">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>8</v>
       </c>
@@ -18916,7 +22830,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:20">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>12</v>
       </c>
@@ -18960,7 +22874,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:20">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>12</v>
       </c>
@@ -19004,7 +22918,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:20">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>8</v>
       </c>
@@ -19048,7 +22962,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:20">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>8</v>
       </c>
@@ -19092,7 +23006,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:20">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>12</v>
       </c>
@@ -19136,7 +23050,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:20">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>8</v>
       </c>
@@ -19180,7 +23094,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:20">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>8</v>
       </c>
@@ -19224,7 +23138,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:20">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>11</v>
       </c>
@@ -19268,7 +23182,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:20">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>8</v>
       </c>
@@ -19312,7 +23226,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:20">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>12</v>
       </c>
@@ -19356,7 +23270,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:20">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>8</v>
       </c>
@@ -19400,7 +23314,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:20">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>8</v>
       </c>
@@ -19444,7 +23358,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:20">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>8</v>
       </c>
@@ -19488,7 +23402,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:20">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>8</v>
       </c>
@@ -19532,7 +23446,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:20">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>12</v>
       </c>
@@ -19576,7 +23490,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:20">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>12</v>
       </c>
@@ -19620,7 +23534,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:20">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>12</v>
       </c>
@@ -19664,7 +23578,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:20">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>8</v>
       </c>
@@ -19708,7 +23622,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:20">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>8</v>
       </c>
@@ -19752,7 +23666,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:20">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>8</v>
       </c>
@@ -19796,7 +23710,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:20">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>12</v>
       </c>
@@ -19840,7 +23754,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:20">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>8</v>
       </c>
@@ -19884,7 +23798,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:20">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>8</v>
       </c>
@@ -19928,7 +23842,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:20">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>12</v>
       </c>
@@ -19972,7 +23886,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:20">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>12</v>
       </c>
@@ -20016,7 +23930,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:20">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>8</v>
       </c>
@@ -20060,7 +23974,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:20">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>8</v>
       </c>
@@ -20104,7 +24018,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:20">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>12</v>
       </c>
@@ -20148,7 +24062,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:20">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>8</v>
       </c>
@@ -20192,7 +24106,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:20">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>8</v>
       </c>
@@ -20236,7 +24150,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:20">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>12</v>
       </c>
@@ -20280,7 +24194,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:20">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>8</v>
       </c>
@@ -20324,7 +24238,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:20">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>11</v>
       </c>
@@ -20368,7 +24282,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:20">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>12</v>
       </c>
@@ -20412,7 +24326,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:20">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>8</v>
       </c>
@@ -20456,7 +24370,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:20">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>8</v>
       </c>
@@ -20500,7 +24414,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:20">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>12</v>
       </c>
@@ -20544,7 +24458,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:20">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>11</v>
       </c>
@@ -20588,7 +24502,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:20">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>8</v>
       </c>
@@ -20632,7 +24546,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:20">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>8</v>
       </c>
@@ -20676,7 +24590,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:20">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>12</v>
       </c>
@@ -20720,7 +24634,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:20">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>8</v>
       </c>
@@ -20764,7 +24678,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:20">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>12</v>
       </c>
@@ -20808,7 +24722,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:20">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>12</v>
       </c>
@@ -20852,7 +24766,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:20">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>12</v>
       </c>
@@ -20896,7 +24810,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:20">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>12</v>
       </c>
@@ -20940,7 +24854,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:20">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>8</v>
       </c>
@@ -20984,7 +24898,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:20">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>8</v>
       </c>
@@ -21028,7 +24942,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:20">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>8</v>
       </c>
@@ -21072,7 +24986,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:20">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>12</v>
       </c>
@@ -21116,7 +25030,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:20">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>8</v>
       </c>
@@ -21160,7 +25074,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:20">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>8</v>
       </c>
@@ -21204,7 +25118,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:20">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>12</v>
       </c>
@@ -21248,7 +25162,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:20">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>8</v>
       </c>
@@ -21292,7 +25206,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:20">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>12</v>
       </c>
@@ -21336,7 +25250,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:20">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>8</v>
       </c>
@@ -21380,7 +25294,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:20">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>12</v>
       </c>
@@ -21424,7 +25338,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:20">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>8</v>
       </c>
@@ -21468,7 +25382,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:20">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>8</v>
       </c>
@@ -21512,7 +25426,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:20">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>8</v>
       </c>
@@ -21556,7 +25470,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:20">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>12</v>
       </c>
@@ -21600,7 +25514,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:20">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>12</v>
       </c>
@@ -21644,7 +25558,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:20">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>8</v>
       </c>
@@ -21688,7 +25602,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:20">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>8</v>
       </c>
@@ -21732,7 +25646,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:20">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>8</v>
       </c>
@@ -21776,7 +25690,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:20">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>12</v>
       </c>
@@ -21820,7 +25734,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:20">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>8</v>
       </c>
@@ -21864,7 +25778,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:20">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>11</v>
       </c>
@@ -21908,7 +25822,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:20">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>12</v>
       </c>
@@ -21952,7 +25866,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:20">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>12</v>
       </c>
@@ -21996,7 +25910,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:20">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>8</v>
       </c>
@@ -22040,7 +25954,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:20">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>8</v>
       </c>
@@ -22084,7 +25998,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:20">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>12</v>
       </c>
@@ -22128,7 +26042,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:20">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>12</v>
       </c>
@@ -22172,7 +26086,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:20">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>8</v>
       </c>
@@ -22216,7 +26130,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:20">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>8</v>
       </c>
@@ -22260,7 +26174,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:20">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>11</v>
       </c>
@@ -22304,7 +26218,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:20">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>8</v>
       </c>
@@ -22348,7 +26262,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:20">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>12</v>
       </c>
@@ -22392,7 +26306,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:20">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>11</v>
       </c>
@@ -22436,7 +26350,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:20">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>8</v>
       </c>
@@ -22480,7 +26394,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:20">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>12</v>
       </c>
@@ -22524,7 +26438,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:20">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>12</v>
       </c>
@@ -22568,7 +26482,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:20">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>8</v>
       </c>
@@ -22612,7 +26526,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:20">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>8</v>
       </c>
@@ -22656,7 +26570,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:20">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>8</v>
       </c>
@@ -22700,7 +26614,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:20">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>12</v>
       </c>
@@ -22744,7 +26658,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:20">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>8</v>
       </c>
@@ -22788,7 +26702,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:20">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>8</v>
       </c>
@@ -22832,7 +26746,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:20">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>8</v>
       </c>
@@ -22876,7 +26790,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:20">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>8</v>
       </c>
@@ -22920,7 +26834,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:20">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>12</v>
       </c>
@@ -22964,7 +26878,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:20">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>8</v>
       </c>
@@ -23008,7 +26922,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:20">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>8</v>
       </c>
@@ -23052,7 +26966,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:20">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>12</v>
       </c>
@@ -23096,7 +27010,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:20">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>11</v>
       </c>
@@ -23140,7 +27054,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:20">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>8</v>
       </c>
@@ -23184,7 +27098,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:20">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>8</v>
       </c>
@@ -23228,7 +27142,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:20">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>11</v>
       </c>
@@ -23272,7 +27186,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:20">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>12</v>
       </c>
@@ -23316,7 +27230,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:20">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>11</v>
       </c>
@@ -23360,7 +27274,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:20">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>8</v>
       </c>
@@ -23404,7 +27318,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:20">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>12</v>
       </c>
@@ -23448,7 +27362,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:20">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>12</v>
       </c>
@@ -23492,7 +27406,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:20">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>8</v>
       </c>
@@ -23536,7 +27450,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:20">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>12</v>
       </c>
@@ -23580,7 +27494,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:20">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>8</v>
       </c>
@@ -23624,7 +27538,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:20">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>12</v>
       </c>
@@ -23668,7 +27582,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:20">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>12</v>
       </c>
@@ -23712,7 +27626,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:20">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>12</v>
       </c>
@@ -23756,7 +27670,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:20">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>8</v>
       </c>
@@ -23800,7 +27714,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:20">
+    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>8</v>
       </c>
@@ -23844,7 +27758,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:20">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>12</v>
       </c>
@@ -23888,7 +27802,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:20">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>12</v>
       </c>
@@ -23932,7 +27846,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:20">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>8</v>
       </c>
@@ -23976,7 +27890,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:20">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>12</v>
       </c>
@@ -24020,7 +27934,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:20">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>12</v>
       </c>
@@ -24064,7 +27978,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:20">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>8</v>
       </c>
@@ -24108,7 +28022,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:20">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>8</v>
       </c>
@@ -24152,7 +28066,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:20">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>8</v>
       </c>
@@ -24196,7 +28110,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:20">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>12</v>
       </c>
@@ -24240,7 +28154,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:20">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>8</v>
       </c>
@@ -24284,7 +28198,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:20">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>8</v>
       </c>
@@ -24328,7 +28242,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:20">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>8</v>
       </c>
@@ -24372,7 +28286,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:20">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>12</v>
       </c>
@@ -24416,7 +28330,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:20">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>8</v>
       </c>
@@ -24460,7 +28374,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:20">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>8</v>
       </c>
@@ -24504,7 +28418,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:20">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>11</v>
       </c>
@@ -24548,7 +28462,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:20">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>12</v>
       </c>
@@ -24592,7 +28506,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:20">
+    <row r="357" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>12</v>
       </c>
@@ -24636,7 +28550,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:20">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>12</v>
       </c>
@@ -24680,7 +28594,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:20">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>8</v>
       </c>
@@ -24724,7 +28638,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="1:20">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>8</v>
       </c>
@@ -24768,7 +28682,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:20">
+    <row r="361" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>12</v>
       </c>
@@ -24812,7 +28726,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:20">
+    <row r="362" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>11</v>
       </c>
@@ -24856,7 +28770,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:20">
+    <row r="363" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>8</v>
       </c>
@@ -24900,7 +28814,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:20">
+    <row r="364" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>8</v>
       </c>
@@ -24944,7 +28858,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:20">
+    <row r="365" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>12</v>
       </c>
@@ -24988,7 +28902,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:20">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>8</v>
       </c>
@@ -25032,7 +28946,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:20">
+    <row r="367" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>12</v>
       </c>
@@ -25076,7 +28990,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:20">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>11</v>
       </c>
@@ -25120,7 +29034,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:20">
+    <row r="369" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>8</v>
       </c>
@@ -25164,7 +29078,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:20">
+    <row r="370" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>8</v>
       </c>
@@ -25208,7 +29122,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:20">
+    <row r="371" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>12</v>
       </c>
@@ -25252,7 +29166,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:20">
+    <row r="372" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>8</v>
       </c>
@@ -25296,7 +29210,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:20">
+    <row r="373" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>8</v>
       </c>
@@ -25340,7 +29254,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:20">
+    <row r="374" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>8</v>
       </c>
@@ -25384,7 +29298,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:20">
+    <row r="375" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>12</v>
       </c>
@@ -25428,7 +29342,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:20">
+    <row r="376" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>12</v>
       </c>
@@ -25472,7 +29386,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:20">
+    <row r="377" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>11</v>
       </c>
@@ -25516,7 +29430,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:20">
+    <row r="378" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>12</v>
       </c>
@@ -25560,7 +29474,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:20">
+    <row r="379" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>8</v>
       </c>
@@ -25604,7 +29518,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:20">
+    <row r="380" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>8</v>
       </c>
@@ -25648,7 +29562,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="1:20">
+    <row r="381" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>12</v>
       </c>
@@ -25692,7 +29606,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:20">
+    <row r="382" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>11</v>
       </c>
@@ -25736,7 +29650,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:20">
+    <row r="383" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>8</v>
       </c>
@@ -25780,7 +29694,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:20">
+    <row r="384" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>12</v>
       </c>
@@ -25824,7 +29738,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="1:20">
+    <row r="385" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>12</v>
       </c>
@@ -25868,7 +29782,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:20">
+    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>8</v>
       </c>
@@ -25912,7 +29826,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:20">
+    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>12</v>
       </c>
@@ -25956,7 +29870,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:20">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>11</v>
       </c>
@@ -26000,7 +29914,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:20">
+    <row r="389" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>8</v>
       </c>
@@ -26044,7 +29958,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:20">
+    <row r="390" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>8</v>
       </c>
@@ -26088,7 +30002,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:20">
+    <row r="391" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>12</v>
       </c>
@@ -26132,7 +30046,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:20">
+    <row r="392" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>8</v>
       </c>
@@ -26176,7 +30090,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:20">
+    <row r="393" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>8</v>
       </c>
@@ -26220,7 +30134,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:20">
+    <row r="394" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>8</v>
       </c>
@@ -26264,7 +30178,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:20">
+    <row r="395" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>12</v>
       </c>
@@ -26308,7 +30222,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:20">
+    <row r="396" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>8</v>
       </c>
@@ -26352,7 +30266,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:20">
+    <row r="397" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>12</v>
       </c>
@@ -26396,7 +30310,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:20">
+    <row r="398" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>8</v>
       </c>
@@ -26440,7 +30354,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:20">
+    <row r="399" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>12</v>
       </c>
@@ -26484,7 +30398,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:20">
+    <row r="400" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>8</v>
       </c>
@@ -26528,7 +30442,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="401" spans="1:20">
+    <row r="401" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>12</v>
       </c>
@@ -26572,7 +30486,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:20">
+    <row r="402" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>8</v>
       </c>
@@ -26616,7 +30530,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="403" spans="1:20">
+    <row r="403" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>12</v>
       </c>
@@ -26660,7 +30574,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="404" spans="1:20">
+    <row r="404" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>8</v>
       </c>
@@ -26704,7 +30618,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="405" spans="1:20">
+    <row r="405" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>8</v>
       </c>
@@ -26748,7 +30662,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="406" spans="1:20">
+    <row r="406" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>8</v>
       </c>
@@ -26792,7 +30706,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="407" spans="1:20">
+    <row r="407" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>8</v>
       </c>
@@ -26836,7 +30750,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="408" spans="1:20">
+    <row r="408" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>12</v>
       </c>
@@ -26880,7 +30794,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="409" spans="1:20">
+    <row r="409" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>8</v>
       </c>
@@ -26924,7 +30838,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="410" spans="1:20">
+    <row r="410" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>12</v>
       </c>
@@ -26968,7 +30882,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="411" spans="1:20">
+    <row r="411" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>12</v>
       </c>
@@ -27012,7 +30926,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="412" spans="1:20">
+    <row r="412" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>12</v>
       </c>
@@ -27056,7 +30970,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="413" spans="1:20">
+    <row r="413" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>8</v>
       </c>
@@ -27100,7 +31014,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="414" spans="1:20">
+    <row r="414" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>8</v>
       </c>
@@ -27144,7 +31058,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="415" spans="1:20">
+    <row r="415" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>12</v>
       </c>
@@ -27188,7 +31102,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:20">
+    <row r="416" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>8</v>
       </c>
@@ -27232,7 +31146,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="417" spans="1:20">
+    <row r="417" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>8</v>
       </c>
@@ -27276,7 +31190,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="418" spans="1:20">
+    <row r="418" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>11</v>
       </c>
@@ -27320,7 +31234,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="419" spans="1:20">
+    <row r="419" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>12</v>
       </c>
@@ -27364,7 +31278,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="420" spans="1:20">
+    <row r="420" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>8</v>
       </c>
@@ -27408,7 +31322,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="421" spans="1:20">
+    <row r="421" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>8</v>
       </c>
@@ -27452,7 +31366,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="422" spans="1:20">
+    <row r="422" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>12</v>
       </c>
@@ -27496,7 +31410,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="423" spans="1:20">
+    <row r="423" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>8</v>
       </c>
@@ -27540,7 +31454,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="424" spans="1:20">
+    <row r="424" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>12</v>
       </c>
@@ -27584,7 +31498,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="425" spans="1:20">
+    <row r="425" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>8</v>
       </c>
@@ -27628,7 +31542,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="426" spans="1:20">
+    <row r="426" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>12</v>
       </c>
@@ -27672,7 +31586,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="427" spans="1:20">
+    <row r="427" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>12</v>
       </c>
@@ -27716,7 +31630,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="428" spans="1:20">
+    <row r="428" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>8</v>
       </c>
@@ -27760,7 +31674,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="429" spans="1:20">
+    <row r="429" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>11</v>
       </c>
@@ -27804,7 +31718,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="430" spans="1:20">
+    <row r="430" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>11</v>
       </c>
@@ -27848,7 +31762,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="431" spans="1:20">
+    <row r="431" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>12</v>
       </c>
@@ -27892,7 +31806,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="432" spans="1:20">
+    <row r="432" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>8</v>
       </c>
@@ -27936,7 +31850,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="433" spans="1:20">
+    <row r="433" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>8</v>
       </c>
@@ -27980,7 +31894,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="434" spans="1:20">
+    <row r="434" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>8</v>
       </c>
@@ -28024,7 +31938,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="435" spans="1:20">
+    <row r="435" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>12</v>
       </c>
@@ -28068,7 +31982,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="436" spans="1:20">
+    <row r="436" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>8</v>
       </c>
@@ -28112,7 +32026,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="437" spans="1:20">
+    <row r="437" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>8</v>
       </c>
@@ -28156,7 +32070,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="438" spans="1:20">
+    <row r="438" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>11</v>
       </c>
@@ -28200,7 +32114,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="439" spans="1:20">
+    <row r="439" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>8</v>
       </c>
@@ -28244,7 +32158,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="440" spans="1:20">
+    <row r="440" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>12</v>
       </c>
@@ -28288,7 +32202,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="441" spans="1:20">
+    <row r="441" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>11</v>
       </c>
@@ -28332,7 +32246,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="442" spans="1:20">
+    <row r="442" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>8</v>
       </c>
@@ -28376,7 +32290,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="443" spans="1:20">
+    <row r="443" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>8</v>
       </c>
@@ -28420,7 +32334,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="444" spans="1:20">
+    <row r="444" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>12</v>
       </c>
@@ -28464,7 +32378,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="445" spans="1:20">
+    <row r="445" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>8</v>
       </c>
@@ -28508,7 +32422,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="446" spans="1:20">
+    <row r="446" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>8</v>
       </c>
@@ -28552,7 +32466,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="447" spans="1:20">
+    <row r="447" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>8</v>
       </c>
@@ -28596,7 +32510,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="448" spans="1:20">
+    <row r="448" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>12</v>
       </c>
@@ -28640,7 +32554,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="449" spans="1:20">
+    <row r="449" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>8</v>
       </c>
@@ -28684,7 +32598,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="450" spans="1:20">
+    <row r="450" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>8</v>
       </c>
@@ -28728,7 +32642,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="451" spans="1:20">
+    <row r="451" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>8</v>
       </c>
@@ -28772,7 +32686,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="452" spans="1:20">
+    <row r="452" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>8</v>
       </c>
@@ -28816,7 +32730,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="453" spans="1:20">
+    <row r="453" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>12</v>
       </c>
@@ -28860,7 +32774,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="454" spans="1:20">
+    <row r="454" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>8</v>
       </c>
@@ -28904,7 +32818,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="455" spans="1:20">
+    <row r="455" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>12</v>
       </c>
@@ -28948,7 +32862,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="456" spans="1:20">
+    <row r="456" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>8</v>
       </c>
@@ -28992,7 +32906,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="457" spans="1:20">
+    <row r="457" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>8</v>
       </c>
@@ -29036,7 +32950,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="458" spans="1:20">
+    <row r="458" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>12</v>
       </c>
@@ -29080,7 +32994,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="459" spans="1:20">
+    <row r="459" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>8</v>
       </c>
@@ -29124,7 +33038,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="460" spans="1:20">
+    <row r="460" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>8</v>
       </c>
@@ -29168,7 +33082,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="461" spans="1:20">
+    <row r="461" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>12</v>
       </c>
@@ -29212,7 +33126,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="462" spans="1:20">
+    <row r="462" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>8</v>
       </c>
@@ -29256,7 +33170,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="463" spans="1:20">
+    <row r="463" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>12</v>
       </c>
@@ -29300,7 +33214,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="464" spans="1:20">
+    <row r="464" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>8</v>
       </c>
@@ -29344,7 +33258,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="465" spans="1:20">
+    <row r="465" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>8</v>
       </c>
@@ -29388,7 +33302,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="466" spans="1:20">
+    <row r="466" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>12</v>
       </c>
@@ -29432,7 +33346,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="467" spans="1:20">
+    <row r="467" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>12</v>
       </c>
@@ -29476,7 +33390,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="468" spans="1:20">
+    <row r="468" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>8</v>
       </c>
@@ -29520,7 +33434,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="469" spans="1:20">
+    <row r="469" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>8</v>
       </c>
@@ -29564,7 +33478,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="470" spans="1:20">
+    <row r="470" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>12</v>
       </c>
@@ -29608,7 +33522,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="471" spans="1:20">
+    <row r="471" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>8</v>
       </c>
@@ -29652,7 +33566,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="472" spans="1:20">
+    <row r="472" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>11</v>
       </c>
@@ -29696,7 +33610,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="473" spans="1:20">
+    <row r="473" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>8</v>
       </c>
@@ -29740,7 +33654,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="474" spans="1:20">
+    <row r="474" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>12</v>
       </c>
@@ -29784,7 +33698,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="475" spans="1:20">
+    <row r="475" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>12</v>
       </c>
@@ -29828,7 +33742,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="476" spans="1:20">
+    <row r="476" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>8</v>
       </c>
@@ -29872,7 +33786,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="477" spans="1:20">
+    <row r="477" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>11</v>
       </c>
@@ -29916,7 +33830,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="478" spans="1:20">
+    <row r="478" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>8</v>
       </c>
@@ -29960,7 +33874,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="479" spans="1:20">
+    <row r="479" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>8</v>
       </c>
@@ -30004,7 +33918,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="480" spans="1:20">
+    <row r="480" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>12</v>
       </c>
@@ -30048,7 +33962,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="481" spans="1:20">
+    <row r="481" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>8</v>
       </c>
@@ -30092,7 +34006,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="482" spans="1:20">
+    <row r="482" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>8</v>
       </c>
@@ -30136,7 +34050,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="483" spans="1:20">
+    <row r="483" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>8</v>
       </c>
@@ -30180,7 +34094,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="484" spans="1:20">
+    <row r="484" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>12</v>
       </c>
@@ -30224,7 +34138,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="485" spans="1:20">
+    <row r="485" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>11</v>
       </c>
@@ -30268,7 +34182,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="486" spans="1:20">
+    <row r="486" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>8</v>
       </c>
@@ -30312,7 +34226,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="487" spans="1:20">
+    <row r="487" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>8</v>
       </c>
@@ -30356,7 +34270,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="488" spans="1:20">
+    <row r="488" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>8</v>
       </c>
@@ -30400,7 +34314,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="489" spans="1:20">
+    <row r="489" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>12</v>
       </c>
@@ -30444,7 +34358,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="490" spans="1:20">
+    <row r="490" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>12</v>
       </c>
@@ -30488,7 +34402,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="491" spans="1:20">
+    <row r="491" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>12</v>
       </c>
@@ -30532,7 +34446,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="492" spans="1:20">
+    <row r="492" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>8</v>
       </c>
@@ -30576,7 +34490,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="493" spans="1:20">
+    <row r="493" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>8</v>
       </c>
@@ -30620,7 +34534,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="494" spans="1:20">
+    <row r="494" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>8</v>
       </c>
@@ -30664,7 +34578,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="495" spans="1:20">
+    <row r="495" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>11</v>
       </c>
@@ -30708,7 +34622,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="496" spans="1:20">
+    <row r="496" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>12</v>
       </c>
@@ -30752,7 +34666,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="497" spans="1:20">
+    <row r="497" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>12</v>
       </c>
@@ -30796,7 +34710,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="498" spans="1:20">
+    <row r="498" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>8</v>
       </c>
@@ -30840,7 +34754,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="499" spans="1:20">
+    <row r="499" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>12</v>
       </c>
@@ -30884,7 +34798,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="500" spans="1:20">
+    <row r="500" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>8</v>
       </c>
@@ -30928,7 +34842,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="501" spans="1:20">
+    <row r="501" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>8</v>
       </c>
@@ -30972,7 +34886,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="502" spans="1:20">
+    <row r="502" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>12</v>
       </c>
@@ -31016,7 +34930,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="503" spans="1:20">
+    <row r="503" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>11</v>
       </c>
@@ -31060,7 +34974,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="504" spans="1:20">
+    <row r="504" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>11</v>
       </c>
@@ -31104,7 +35018,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="505" spans="1:20">
+    <row r="505" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>8</v>
       </c>
@@ -31148,7 +35062,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="506" spans="1:20">
+    <row r="506" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>8</v>
       </c>
@@ -31192,7 +35106,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="507" spans="1:20">
+    <row r="507" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>12</v>
       </c>
@@ -31236,7 +35150,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="508" spans="1:20">
+    <row r="508" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>12</v>
       </c>
@@ -31280,7 +35194,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="509" spans="1:20">
+    <row r="509" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>12</v>
       </c>
@@ -31324,7 +35238,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="510" spans="1:20">
+    <row r="510" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>8</v>
       </c>
@@ -31368,7 +35282,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="511" spans="1:20">
+    <row r="511" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>12</v>
       </c>
@@ -31412,7 +35326,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="512" spans="1:20">
+    <row r="512" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>11</v>
       </c>
@@ -31456,7 +35370,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="513" spans="1:20">
+    <row r="513" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>12</v>
       </c>
@@ -31500,7 +35414,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="514" spans="1:20">
+    <row r="514" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>8</v>
       </c>
@@ -31544,7 +35458,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="515" spans="1:20">
+    <row r="515" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>11</v>
       </c>
@@ -31588,7 +35502,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="516" spans="1:20">
+    <row r="516" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>12</v>
       </c>
@@ -31632,7 +35546,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="517" spans="1:20">
+    <row r="517" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>12</v>
       </c>
@@ -31676,7 +35590,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="518" spans="1:20">
+    <row r="518" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>8</v>
       </c>
@@ -31720,7 +35634,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="519" spans="1:20">
+    <row r="519" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>12</v>
       </c>
@@ -31764,7 +35678,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="520" spans="1:20">
+    <row r="520" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>12</v>
       </c>
@@ -31808,7 +35722,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="521" spans="1:20">
+    <row r="521" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>8</v>
       </c>
@@ -31852,7 +35766,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="522" spans="1:20">
+    <row r="522" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>8</v>
       </c>
@@ -31896,7 +35810,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="523" spans="1:20">
+    <row r="523" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>12</v>
       </c>
@@ -31940,7 +35854,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="524" spans="1:20">
+    <row r="524" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>8</v>
       </c>
@@ -31984,7 +35898,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="525" spans="1:20">
+    <row r="525" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>8</v>
       </c>
@@ -32028,7 +35942,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="526" spans="1:20">
+    <row r="526" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>12</v>
       </c>
@@ -32072,7 +35986,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="527" spans="1:20">
+    <row r="527" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>12</v>
       </c>
@@ -32116,7 +36030,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="528" spans="1:20">
+    <row r="528" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>8</v>
       </c>
@@ -32160,7 +36074,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="529" spans="1:20">
+    <row r="529" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>11</v>
       </c>
@@ -32204,7 +36118,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="530" spans="1:20">
+    <row r="530" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>12</v>
       </c>
@@ -32248,7 +36162,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="531" spans="1:20">
+    <row r="531" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>8</v>
       </c>
@@ -32292,7 +36206,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="532" spans="1:20">
+    <row r="532" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>8</v>
       </c>
@@ -32336,7 +36250,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="533" spans="1:20">
+    <row r="533" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>8</v>
       </c>
@@ -32380,7 +36294,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="534" spans="1:20">
+    <row r="534" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>12</v>
       </c>
@@ -32424,7 +36338,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="535" spans="1:20">
+    <row r="535" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>8</v>
       </c>
@@ -32468,7 +36382,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="536" spans="1:20">
+    <row r="536" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>8</v>
       </c>
@@ -32512,7 +36426,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="537" spans="1:20">
+    <row r="537" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>8</v>
       </c>
@@ -32556,7 +36470,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="538" spans="1:20">
+    <row r="538" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>8</v>
       </c>
@@ -32600,7 +36514,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="539" spans="1:20">
+    <row r="539" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>12</v>
       </c>
@@ -32644,7 +36558,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="540" spans="1:20">
+    <row r="540" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>11</v>
       </c>
@@ -32688,7 +36602,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="541" spans="1:20">
+    <row r="541" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>12</v>
       </c>
@@ -32732,7 +36646,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="542" spans="1:20">
+    <row r="542" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>12</v>
       </c>
@@ -32776,7 +36690,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="543" spans="1:20">
+    <row r="543" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>8</v>
       </c>
@@ -32820,7 +36734,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="544" spans="1:20">
+    <row r="544" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>8</v>
       </c>
@@ -32864,7 +36778,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="545" spans="1:20">
+    <row r="545" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>8</v>
       </c>
@@ -32908,7 +36822,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="546" spans="1:20">
+    <row r="546" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>12</v>
       </c>
@@ -32952,7 +36866,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="547" spans="1:20">
+    <row r="547" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>12</v>
       </c>
@@ -32996,7 +36910,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="548" spans="1:20">
+    <row r="548" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>8</v>
       </c>
@@ -33040,7 +36954,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="549" spans="1:20">
+    <row r="549" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>12</v>
       </c>
@@ -33084,7 +36998,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="550" spans="1:20">
+    <row r="550" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>8</v>
       </c>
@@ -33128,7 +37042,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="551" spans="1:20">
+    <row r="551" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>8</v>
       </c>
@@ -33172,7 +37086,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="552" spans="1:20">
+    <row r="552" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>12</v>
       </c>
@@ -33216,7 +37130,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="553" spans="1:20">
+    <row r="553" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>12</v>
       </c>
@@ -33260,7 +37174,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="554" spans="1:20">
+    <row r="554" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>8</v>
       </c>
@@ -33304,7 +37218,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="555" spans="1:20">
+    <row r="555" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>8</v>
       </c>
@@ -33348,7 +37262,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="556" spans="1:20">
+    <row r="556" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>8</v>
       </c>
@@ -33392,7 +37306,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="557" spans="1:20">
+    <row r="557" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>8</v>
       </c>
@@ -33436,7 +37350,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="558" spans="1:20">
+    <row r="558" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>12</v>
       </c>
@@ -33480,7 +37394,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="559" spans="1:20">
+    <row r="559" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>8</v>
       </c>
@@ -33524,7 +37438,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="560" spans="1:20">
+    <row r="560" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>12</v>
       </c>
@@ -33568,7 +37482,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="561" spans="1:20">
+    <row r="561" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>8</v>
       </c>
@@ -33612,7 +37526,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="562" spans="1:20">
+    <row r="562" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>12</v>
       </c>
@@ -33656,7 +37570,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="563" spans="1:20">
+    <row r="563" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>8</v>
       </c>
@@ -33700,7 +37614,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="564" spans="1:20">
+    <row r="564" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>12</v>
       </c>
@@ -33744,7 +37658,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="565" spans="1:20">
+    <row r="565" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>11</v>
       </c>
@@ -33788,7 +37702,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="566" spans="1:20">
+    <row r="566" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>12</v>
       </c>
@@ -33832,7 +37746,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="567" spans="1:20">
+    <row r="567" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>12</v>
       </c>
@@ -33876,7 +37790,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="568" spans="1:20">
+    <row r="568" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>8</v>
       </c>
@@ -33920,7 +37834,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="569" spans="1:20">
+    <row r="569" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
         <v>11</v>
       </c>
@@ -33964,7 +37878,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="570" spans="1:20">
+    <row r="570" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>12</v>
       </c>
@@ -34008,7 +37922,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="571" spans="1:20">
+    <row r="571" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>8</v>
       </c>
@@ -34052,7 +37966,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="572" spans="1:20">
+    <row r="572" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
         <v>12</v>
       </c>
@@ -34096,7 +38010,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="573" spans="1:20">
+    <row r="573" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>12</v>
       </c>
@@ -34140,7 +38054,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="574" spans="1:20">
+    <row r="574" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
         <v>11</v>
       </c>
@@ -34184,7 +38098,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="575" spans="1:20">
+    <row r="575" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
         <v>8</v>
       </c>
@@ -34228,7 +38142,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="576" spans="1:20">
+    <row r="576" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
         <v>12</v>
       </c>
@@ -34272,7 +38186,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="577" spans="1:20">
+    <row r="577" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>8</v>
       </c>
@@ -34316,7 +38230,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="578" spans="1:20">
+    <row r="578" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
         <v>8</v>
       </c>
@@ -34360,7 +38274,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="579" spans="1:20">
+    <row r="579" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>12</v>
       </c>
@@ -34404,7 +38318,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="580" spans="1:20">
+    <row r="580" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
         <v>8</v>
       </c>
@@ -34448,7 +38362,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="581" spans="1:20">
+    <row r="581" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
         <v>12</v>
       </c>
@@ -34492,7 +38406,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="582" spans="1:20">
+    <row r="582" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
         <v>8</v>
       </c>
@@ -34536,7 +38450,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="583" spans="1:20">
+    <row r="583" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
         <v>8</v>
       </c>
@@ -34580,7 +38494,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="584" spans="1:20">
+    <row r="584" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
         <v>8</v>
       </c>
@@ -34624,7 +38538,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="585" spans="1:20">
+    <row r="585" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
         <v>8</v>
       </c>
@@ -34668,7 +38582,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="586" spans="1:20">
+    <row r="586" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
         <v>12</v>
       </c>
@@ -34712,7 +38626,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="587" spans="1:20">
+    <row r="587" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
         <v>8</v>
       </c>
@@ -34756,7 +38670,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="588" spans="1:20">
+    <row r="588" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
         <v>12</v>
       </c>
@@ -34800,7 +38714,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="589" spans="1:20">
+    <row r="589" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
         <v>12</v>
       </c>
@@ -34844,7 +38758,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="590" spans="1:20">
+    <row r="590" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
         <v>8</v>
       </c>
@@ -34888,7 +38802,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="591" spans="1:20">
+    <row r="591" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
         <v>8</v>
       </c>
@@ -34932,7 +38846,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="592" spans="1:20">
+    <row r="592" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
         <v>8</v>
       </c>
@@ -34976,7 +38890,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="593" spans="1:20">
+    <row r="593" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
         <v>12</v>
       </c>
@@ -35020,7 +38934,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="594" spans="1:20">
+    <row r="594" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
         <v>8</v>
       </c>
@@ -35064,7 +38978,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="595" spans="1:20">
+    <row r="595" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
         <v>11</v>
       </c>
@@ -35108,7 +39022,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="596" spans="1:20">
+    <row r="596" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
         <v>11</v>
       </c>
@@ -35152,7 +39066,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="597" spans="1:20">
+    <row r="597" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>8</v>
       </c>
@@ -35196,7 +39110,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="598" spans="1:20">
+    <row r="598" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
         <v>12</v>
       </c>
@@ -35240,7 +39154,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="599" spans="1:20">
+    <row r="599" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
         <v>12</v>
       </c>
@@ -35284,7 +39198,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="600" spans="1:20">
+    <row r="600" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
         <v>8</v>
       </c>
@@ -35328,7 +39242,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="601" spans="1:20">
+    <row r="601" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
         <v>12</v>
       </c>
@@ -35372,7 +39286,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="602" spans="1:20">
+    <row r="602" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
         <v>11</v>
       </c>
@@ -35416,7 +39330,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="603" spans="1:20">
+    <row r="603" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
         <v>12</v>
       </c>
@@ -35460,7 +39374,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="604" spans="1:20">
+    <row r="604" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>8</v>
       </c>
@@ -35504,7 +39418,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="605" spans="1:20">
+    <row r="605" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
         <v>8</v>
       </c>
@@ -35548,7 +39462,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="606" spans="1:20">
+    <row r="606" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
         <v>12</v>
       </c>
@@ -35592,7 +39506,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="607" spans="1:20">
+    <row r="607" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
         <v>8</v>
       </c>
@@ -35636,7 +39550,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="608" spans="1:20">
+    <row r="608" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
         <v>8</v>
       </c>
@@ -35680,7 +39594,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="609" spans="1:20">
+    <row r="609" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
         <v>8</v>
       </c>
@@ -35724,7 +39638,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="610" spans="1:20">
+    <row r="610" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
         <v>12</v>
       </c>
@@ -35768,7 +39682,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="611" spans="1:20">
+    <row r="611" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
         <v>8</v>
       </c>
@@ -35812,7 +39726,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="612" spans="1:20">
+    <row r="612" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
         <v>11</v>
       </c>
@@ -35856,7 +39770,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="613" spans="1:20">
+    <row r="613" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
         <v>8</v>
       </c>
@@ -35900,7 +39814,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="614" spans="1:20">
+    <row r="614" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
         <v>12</v>
       </c>
@@ -35944,7 +39858,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="615" spans="1:20">
+    <row r="615" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
         <v>12</v>
       </c>
@@ -35988,7 +39902,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="616" spans="1:20">
+    <row r="616" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
         <v>8</v>
       </c>
@@ -36032,7 +39946,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="617" spans="1:20">
+    <row r="617" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
         <v>8</v>
       </c>
@@ -36076,7 +39990,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="618" spans="1:20">
+    <row r="618" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
         <v>12</v>
       </c>
@@ -36120,7 +40034,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="619" spans="1:20">
+    <row r="619" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
         <v>8</v>
       </c>
@@ -36164,7 +40078,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="620" spans="1:20">
+    <row r="620" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
         <v>8</v>
       </c>
@@ -36208,7 +40122,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="621" spans="1:20">
+    <row r="621" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
         <v>8</v>
       </c>
@@ -36252,7 +40166,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="622" spans="1:20">
+    <row r="622" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
         <v>8</v>
       </c>
@@ -36296,7 +40210,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="623" spans="1:20">
+    <row r="623" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
         <v>12</v>
       </c>
@@ -36340,7 +40254,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="624" spans="1:20">
+    <row r="624" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
         <v>8</v>
       </c>
@@ -36384,7 +40298,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="625" spans="1:20">
+    <row r="625" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
         <v>11</v>
       </c>
@@ -36428,7 +40342,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="626" spans="1:20">
+    <row r="626" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
         <v>8</v>
       </c>
@@ -36472,7 +40386,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="627" spans="1:20">
+    <row r="627" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
         <v>12</v>
       </c>
@@ -36516,7 +40430,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="628" spans="1:20">
+    <row r="628" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
         <v>8</v>
       </c>
@@ -36560,7 +40474,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="629" spans="1:20">
+    <row r="629" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
         <v>8</v>
       </c>
@@ -36604,7 +40518,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="630" spans="1:20">
+    <row r="630" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
         <v>11</v>
       </c>
@@ -36648,7 +40562,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="631" spans="1:20">
+    <row r="631" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
         <v>8</v>
       </c>
@@ -36692,7 +40606,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="632" spans="1:20">
+    <row r="632" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
         <v>12</v>
       </c>
@@ -36757,9 +40671,10 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -36768,43 +40683,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4ADEF82-8D7C-48C7-A309-440AAFDE9F23}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -36818,5 +40733,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95850223-224B-4AA5-8AFB-2D8C2D26CEC7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95850223-224B-4AA5-8AFB-2D8C2D26CEC7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/DataMashup"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/2020.hs/extra/day8.xlsx
+++ b/2020.hs/extra/day8.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="23" documentId="8_{229385F8-70F4-4305-99E7-F92DAF6CA910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0B084F93-0404-4AD3-86C2-5F5FEBF6BC1F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11DB06FD-3AE6-4A5B-B6F0-BE66421C0592}"/>
+    <workbookView minimized="1" xWindow="390" yWindow="375" windowWidth="9570" windowHeight="7170" xr2:uid="{11DB06FD-3AE6-4A5B-B6F0-BE66421C0592}"/>
   </bookViews>
   <sheets>
     <sheet name="solution" sheetId="2" r:id="rId1"/>
